--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.251793</v>
+        <v>0.306331</v>
       </c>
       <c r="N2">
-        <v>0.755379</v>
+        <v>0.612662</v>
       </c>
       <c r="O2">
-        <v>0.1680913513104547</v>
+        <v>0.3110475698250421</v>
       </c>
       <c r="P2">
-        <v>0.207870972215954</v>
+        <v>0.269966629931537</v>
       </c>
       <c r="Q2">
-        <v>0.1629608072895</v>
+        <v>1.1367231190425</v>
       </c>
       <c r="R2">
-        <v>0.977764843737</v>
+        <v>4.546892476170001</v>
       </c>
       <c r="S2">
-        <v>0.003534791132056796</v>
+        <v>0.1336637412879204</v>
       </c>
       <c r="T2">
-        <v>0.002968634621282573</v>
+        <v>0.09558003664927117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.8599760000000001</v>
+        <v>0.251793</v>
       </c>
       <c r="N3">
-        <v>1.719952</v>
+        <v>0.755379</v>
       </c>
       <c r="O3">
-        <v>0.5741006617918673</v>
+        <v>0.255669849766941</v>
       </c>
       <c r="P3">
-        <v>0.4733095497819964</v>
+        <v>0.3328542050119878</v>
       </c>
       <c r="Q3">
-        <v>0.556577757164</v>
+        <v>0.9343452811275</v>
       </c>
       <c r="R3">
-        <v>2.226311028656</v>
+        <v>5.606071686765</v>
       </c>
       <c r="S3">
-        <v>0.01207275634581452</v>
+        <v>0.1098667598451001</v>
       </c>
       <c r="T3">
-        <v>0.00675940031976558</v>
+        <v>0.1178449985539985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245507</v>
+        <v>0.01706366666666667</v>
       </c>
       <c r="N4">
-        <v>0.736521</v>
+        <v>0.051191</v>
       </c>
       <c r="O4">
-        <v>0.1638949588994762</v>
+        <v>0.01732639546428942</v>
       </c>
       <c r="P4">
-        <v>0.2026814835036011</v>
+        <v>0.02255707348068806</v>
       </c>
       <c r="Q4">
-        <v>0.1588924986605</v>
+        <v>0.06331929969750001</v>
       </c>
       <c r="R4">
-        <v>0.953354991963</v>
+        <v>0.379915798185</v>
       </c>
       <c r="S4">
-        <v>0.003446545243346193</v>
+        <v>0.007445519802947285</v>
       </c>
       <c r="T4">
-        <v>0.002894522802330568</v>
+        <v>0.007986194110476642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1406773333333333</v>
+        <v>0.3787795</v>
       </c>
       <c r="N5">
-        <v>0.422032</v>
+        <v>0.757559</v>
       </c>
       <c r="O5">
-        <v>0.09391302799820199</v>
+        <v>0.3846115573498748</v>
       </c>
       <c r="P5">
-        <v>0.1161379944984485</v>
+        <v>0.3338148117629381</v>
       </c>
       <c r="Q5">
-        <v>0.09104658114933332</v>
+        <v>1.40556265826625</v>
       </c>
       <c r="R5">
-        <v>0.5462794868959999</v>
+        <v>5.622250633065001</v>
       </c>
       <c r="S5">
-        <v>0.001974896007228416</v>
+        <v>0.1652757477799108</v>
       </c>
       <c r="T5">
-        <v>0.001658583051010323</v>
+        <v>0.1181850955077762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H6">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I6">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J6">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.251793</v>
+        <v>0.03086933333333333</v>
       </c>
       <c r="N6">
-        <v>0.755379</v>
+        <v>0.092608</v>
       </c>
       <c r="O6">
-        <v>0.1680913513104547</v>
+        <v>0.03134462759385272</v>
       </c>
       <c r="P6">
-        <v>0.207870972215954</v>
+        <v>0.04080727981284913</v>
       </c>
       <c r="Q6">
-        <v>0.220478511762</v>
+        <v>0.11454891888</v>
       </c>
       <c r="R6">
-        <v>1.984306605858</v>
+        <v>0.68729351328</v>
       </c>
       <c r="S6">
-        <v>0.0047824105755741</v>
+        <v>0.01346945162062359</v>
       </c>
       <c r="T6">
-        <v>0.006024640103519872</v>
+        <v>0.01444756820892385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H7">
         <v>2.626902</v>
       </c>
       <c r="I7">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J7">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.8599760000000001</v>
+        <v>0.306331</v>
       </c>
       <c r="N7">
-        <v>1.719952</v>
+        <v>0.612662</v>
       </c>
       <c r="O7">
-        <v>0.5741006617918673</v>
+        <v>0.3110475698250421</v>
       </c>
       <c r="P7">
-        <v>0.4733095497819964</v>
+        <v>0.269966629931537</v>
       </c>
       <c r="Q7">
-        <v>0.753024224784</v>
+        <v>0.268233838854</v>
       </c>
       <c r="R7">
-        <v>4.518145348704</v>
+        <v>1.609403033124</v>
       </c>
       <c r="S7">
-        <v>0.01633388663362331</v>
+        <v>0.03154078406661342</v>
       </c>
       <c r="T7">
-        <v>0.01371773877130449</v>
+        <v>0.03383119387485793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
         <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.245507</v>
+        <v>0.251793</v>
       </c>
       <c r="N8">
-        <v>0.736521</v>
+        <v>0.755379</v>
       </c>
       <c r="O8">
-        <v>0.1638949588994762</v>
+        <v>0.255669849766941</v>
       </c>
       <c r="P8">
-        <v>0.2026814835036011</v>
+        <v>0.3328542050119878</v>
       </c>
       <c r="Q8">
-        <v>0.214974276438</v>
+        <v>0.220478511762</v>
       </c>
       <c r="R8">
-        <v>1.934768487942</v>
+        <v>1.984306605858</v>
       </c>
       <c r="S8">
-        <v>0.004663017928129339</v>
+        <v>0.02592538346587447</v>
       </c>
       <c r="T8">
-        <v>0.005874235256321078</v>
+        <v>0.04171202620367561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
         <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1406773333333333</v>
+        <v>0.01706366666666667</v>
       </c>
       <c r="N9">
-        <v>0.422032</v>
+        <v>0.051191</v>
       </c>
       <c r="O9">
-        <v>0.09391302799820199</v>
+        <v>0.01732639546428942</v>
       </c>
       <c r="P9">
-        <v>0.1161379944984485</v>
+        <v>0.02255707348068806</v>
       </c>
       <c r="Q9">
-        <v>0.123181856096</v>
+        <v>0.014941526698</v>
       </c>
       <c r="R9">
-        <v>1.108636704864</v>
+        <v>0.134473740282</v>
       </c>
       <c r="S9">
-        <v>0.002671943885163194</v>
+        <v>0.001756927721053379</v>
       </c>
       <c r="T9">
-        <v>0.003365980404761978</v>
+        <v>0.002826766872513478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J10">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.251793</v>
+        <v>0.3787795</v>
       </c>
       <c r="N10">
-        <v>0.755379</v>
+        <v>0.757559</v>
       </c>
       <c r="O10">
-        <v>0.1680913513104547</v>
+        <v>0.3846115573498748</v>
       </c>
       <c r="P10">
-        <v>0.207870972215954</v>
+        <v>0.3338148117629381</v>
       </c>
       <c r="Q10">
-        <v>0.891508115727</v>
+        <v>0.3316722087030001</v>
       </c>
       <c r="R10">
-        <v>8.023573041543001</v>
+        <v>1.990033252218</v>
       </c>
       <c r="S10">
-        <v>0.01933774773237461</v>
+        <v>0.03900030495888368</v>
       </c>
       <c r="T10">
-        <v>0.02436072115916752</v>
+        <v>0.04183240579739481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J11">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8599760000000001</v>
+        <v>0.03086933333333333</v>
       </c>
       <c r="N11">
-        <v>1.719952</v>
+        <v>0.092608</v>
       </c>
       <c r="O11">
-        <v>0.5741006617918673</v>
+        <v>0.03134462759385272</v>
       </c>
       <c r="P11">
-        <v>0.4733095497819964</v>
+        <v>0.04080727981284913</v>
       </c>
       <c r="Q11">
-        <v>3.044864564664</v>
+        <v>0.027030237824</v>
       </c>
       <c r="R11">
-        <v>18.269187387984</v>
+        <v>0.243272140416</v>
       </c>
       <c r="S11">
-        <v>0.06604631162858612</v>
+        <v>0.003178401718882445</v>
       </c>
       <c r="T11">
-        <v>0.05546787914298982</v>
+        <v>0.005113813493186852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H12">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I12">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J12">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.245507</v>
+        <v>0.306331</v>
       </c>
       <c r="N12">
-        <v>0.736521</v>
+        <v>0.612662</v>
       </c>
       <c r="O12">
-        <v>0.1638949588994762</v>
+        <v>0.3110475698250421</v>
       </c>
       <c r="P12">
-        <v>0.2026814835036011</v>
+        <v>0.269966629931537</v>
       </c>
       <c r="Q12">
-        <v>0.8692516589730001</v>
+        <v>0.3211481283596667</v>
       </c>
       <c r="R12">
-        <v>7.823264930756999</v>
+        <v>1.926888770158</v>
       </c>
       <c r="S12">
-        <v>0.01885498180065408</v>
+        <v>0.03776281103557059</v>
       </c>
       <c r="T12">
-        <v>0.02375255694012042</v>
+        <v>0.04050504827989797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H13">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I13">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J13">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1406773333333333</v>
+        <v>0.251793</v>
       </c>
       <c r="N13">
-        <v>0.422032</v>
+        <v>0.755379</v>
       </c>
       <c r="O13">
-        <v>0.09391302799820199</v>
+        <v>0.255669849766941</v>
       </c>
       <c r="P13">
-        <v>0.1161379944984485</v>
+        <v>0.3328542050119878</v>
       </c>
       <c r="Q13">
-        <v>0.498087652816</v>
+        <v>0.263972143479</v>
       </c>
       <c r="R13">
-        <v>4.482788875343999</v>
+        <v>2.375749291311</v>
       </c>
       <c r="S13">
-        <v>0.01080404452730288</v>
+        <v>0.03103966454286189</v>
       </c>
       <c r="T13">
-        <v>0.01361039143561813</v>
+        <v>0.04994052652950738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H14">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I14">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J14">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.251793</v>
+        <v>0.01706366666666667</v>
       </c>
       <c r="N14">
-        <v>0.755379</v>
+        <v>0.051191</v>
       </c>
       <c r="O14">
-        <v>0.1680913513104547</v>
+        <v>0.01732639546428942</v>
       </c>
       <c r="P14">
-        <v>0.207870972215954</v>
+        <v>0.02255707348068806</v>
       </c>
       <c r="Q14">
-        <v>0.263243286675</v>
+        <v>0.01788903053544445</v>
       </c>
       <c r="R14">
-        <v>1.57945972005</v>
+        <v>0.161001274819</v>
       </c>
       <c r="S14">
-        <v>0.005710023476130819</v>
+        <v>0.002103515543341347</v>
       </c>
       <c r="T14">
-        <v>0.004795466760638531</v>
+        <v>0.003384401066976991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1346,54 +1346,54 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H15">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I15">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J15">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.8599760000000001</v>
+        <v>0.3787795</v>
       </c>
       <c r="N15">
-        <v>1.719952</v>
+        <v>0.757559</v>
       </c>
       <c r="O15">
-        <v>0.5741006617918673</v>
+        <v>0.3846115573498748</v>
       </c>
       <c r="P15">
-        <v>0.4733095497819964</v>
+        <v>0.3338148117629381</v>
       </c>
       <c r="Q15">
-        <v>0.8990834086000002</v>
+        <v>0.3971009381551667</v>
       </c>
       <c r="R15">
-        <v>3.596333634400001</v>
+        <v>2.382605628931</v>
       </c>
       <c r="S15">
-        <v>0.01950206379410499</v>
+        <v>0.04669386605550176</v>
       </c>
       <c r="T15">
-        <v>0.01091898589435735</v>
+        <v>0.05008465331597394</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.045475</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H16">
-        <v>2.09095</v>
+        <v>3.145109</v>
       </c>
       <c r="I16">
-        <v>0.03396976365300761</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J16">
-        <v>0.02306943922721732</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.245507</v>
+        <v>0.03086933333333333</v>
       </c>
       <c r="N16">
-        <v>0.736521</v>
+        <v>0.092608</v>
       </c>
       <c r="O16">
-        <v>0.1638949588994762</v>
+        <v>0.03134462759385272</v>
       </c>
       <c r="P16">
-        <v>0.2026814835036011</v>
+        <v>0.04080727981284913</v>
       </c>
       <c r="Q16">
-        <v>0.256671430825</v>
+        <v>0.03236247269688889</v>
       </c>
       <c r="R16">
-        <v>1.54002858495</v>
+        <v>0.291262254272</v>
       </c>
       <c r="S16">
-        <v>0.005567473017734603</v>
+        <v>0.003805402657454541</v>
       </c>
       <c r="T16">
-        <v>0.004675748166168574</v>
+        <v>0.006122611670227289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H17">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I17">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J17">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1406773333333333</v>
+        <v>0.306331</v>
       </c>
       <c r="N17">
-        <v>0.422032</v>
+        <v>0.612662</v>
       </c>
       <c r="O17">
-        <v>0.09391302799820199</v>
+        <v>0.3110475698250421</v>
       </c>
       <c r="P17">
-        <v>0.1161379944984485</v>
+        <v>0.269966629931537</v>
       </c>
       <c r="Q17">
-        <v>0.1470746350666667</v>
+        <v>0.3776799316995001</v>
       </c>
       <c r="R17">
-        <v>0.8824478104000001</v>
+        <v>1.510719726798</v>
       </c>
       <c r="S17">
-        <v>0.003190203365037208</v>
+        <v>0.04441021022150425</v>
       </c>
       <c r="T17">
-        <v>0.002679238406052856</v>
+        <v>0.03175677621823999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H18">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I18">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J18">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.755379</v>
       </c>
       <c r="O18">
-        <v>0.1680913513104547</v>
+        <v>0.255669849766941</v>
       </c>
       <c r="P18">
-        <v>0.207870972215954</v>
+        <v>0.3328542050119878</v>
       </c>
       <c r="Q18">
-        <v>0.313169474163</v>
+        <v>0.3104392406985</v>
       </c>
       <c r="R18">
-        <v>2.818525267467</v>
+        <v>1.862635444191</v>
       </c>
       <c r="S18">
-        <v>0.006792974939892732</v>
+        <v>0.03650358619370295</v>
       </c>
       <c r="T18">
-        <v>0.008557447880804423</v>
+        <v>0.03915438180098962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H19">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I19">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J19">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.8599760000000001</v>
+        <v>0.01706366666666667</v>
       </c>
       <c r="N19">
-        <v>1.719952</v>
+        <v>0.051191</v>
       </c>
       <c r="O19">
-        <v>0.5741006617918673</v>
+        <v>0.01732639546428942</v>
       </c>
       <c r="P19">
-        <v>0.4733095497819964</v>
+        <v>0.02255707348068806</v>
       </c>
       <c r="Q19">
-        <v>1.069601743149333</v>
+        <v>0.0210380420565</v>
       </c>
       <c r="R19">
-        <v>6.417610458896</v>
+        <v>0.126228252339</v>
       </c>
       <c r="S19">
-        <v>0.02320078563307635</v>
+        <v>0.002473798028329948</v>
       </c>
       <c r="T19">
-        <v>0.01948478789784377</v>
+        <v>0.00265343881518345</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H20">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I20">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J20">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.245507</v>
+        <v>0.3787795</v>
       </c>
       <c r="N20">
-        <v>0.736521</v>
+        <v>0.757559</v>
       </c>
       <c r="O20">
-        <v>0.1638949588994762</v>
+        <v>0.3846115573498748</v>
       </c>
       <c r="P20">
-        <v>0.2026814835036011</v>
+        <v>0.3338148117629381</v>
       </c>
       <c r="Q20">
-        <v>0.3053512134703333</v>
+        <v>0.46700273785275</v>
       </c>
       <c r="R20">
-        <v>2.748160921233</v>
+        <v>1.868010951411</v>
       </c>
       <c r="S20">
-        <v>0.006623388650868948</v>
+        <v>0.05491340159042431</v>
       </c>
       <c r="T20">
-        <v>0.008343811610619246</v>
+        <v>0.03926738011352698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.243757666666667</v>
+        <v>1.2329145</v>
       </c>
       <c r="H21">
-        <v>3.731273</v>
+        <v>2.465829</v>
       </c>
       <c r="I21">
-        <v>0.04041240008444284</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J21">
-        <v>0.04116711337605242</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1406773333333333</v>
+        <v>0.03086933333333333</v>
       </c>
       <c r="N21">
-        <v>0.422032</v>
+        <v>0.092608</v>
       </c>
       <c r="O21">
-        <v>0.09391302799820199</v>
+        <v>0.03134462759385272</v>
       </c>
       <c r="P21">
-        <v>0.1161379944984485</v>
+        <v>0.04080727981284913</v>
       </c>
       <c r="Q21">
-        <v>0.1749685118595555</v>
+        <v>0.038059248672</v>
       </c>
       <c r="R21">
-        <v>1.574716606736</v>
+        <v>0.228355492032</v>
       </c>
       <c r="S21">
-        <v>0.003795250860604821</v>
+        <v>0.0044752688520947</v>
       </c>
       <c r="T21">
-        <v>0.004781065986784981</v>
+        <v>0.004800251251128303</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H22">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I22">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J22">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.251793</v>
+        <v>0.306331</v>
       </c>
       <c r="N22">
-        <v>0.755379</v>
+        <v>0.612662</v>
       </c>
       <c r="O22">
-        <v>0.1680913513104547</v>
+        <v>0.3110475698250421</v>
       </c>
       <c r="P22">
-        <v>0.207870972215954</v>
+        <v>0.269966629931537</v>
       </c>
       <c r="Q22">
-        <v>5.897980935042</v>
+        <v>0.294784771948</v>
       </c>
       <c r="R22">
-        <v>53.08182841537801</v>
+        <v>1.768708631688</v>
       </c>
       <c r="S22">
-        <v>0.1279334034544257</v>
+        <v>0.03466282583085471</v>
       </c>
       <c r="T22">
-        <v>0.1611640616905411</v>
+        <v>0.03717995020216984</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H23">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I23">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J23">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.8599760000000001</v>
+        <v>0.251793</v>
       </c>
       <c r="N23">
-        <v>1.719952</v>
+        <v>0.755379</v>
       </c>
       <c r="O23">
-        <v>0.5741006617918673</v>
+        <v>0.255669849766941</v>
       </c>
       <c r="P23">
-        <v>0.4733095497819964</v>
+        <v>0.3328542050119878</v>
       </c>
       <c r="Q23">
-        <v>20.14401533241067</v>
+        <v>0.242302418244</v>
       </c>
       <c r="R23">
-        <v>120.864091994464</v>
+        <v>2.180721764196</v>
       </c>
       <c r="S23">
-        <v>0.436944857756662</v>
+        <v>0.02849158885136796</v>
       </c>
       <c r="T23">
-        <v>0.3669607577557353</v>
+        <v>0.04584086103555443</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>23.42392733333334</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H24">
-        <v>70.271782</v>
+        <v>2.886924</v>
       </c>
       <c r="I24">
-        <v>0.7610945028226961</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J24">
-        <v>0.7753081633885379</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.245507</v>
+        <v>0.01706366666666667</v>
       </c>
       <c r="N24">
-        <v>0.736521</v>
+        <v>0.051191</v>
       </c>
       <c r="O24">
-        <v>0.1638949588994762</v>
+        <v>0.01732639546428942</v>
       </c>
       <c r="P24">
-        <v>0.2026814835036011</v>
+        <v>0.02255707348068806</v>
       </c>
       <c r="Q24">
-        <v>5.750738127824667</v>
+        <v>0.01642050294266667</v>
       </c>
       <c r="R24">
-        <v>51.756643150422</v>
+        <v>0.147784526484</v>
       </c>
       <c r="S24">
-        <v>0.124739552258743</v>
+        <v>0.001930835944460168</v>
       </c>
       <c r="T24">
-        <v>0.1571406087280412</v>
+        <v>0.003106572352780613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.886924</v>
+      </c>
+      <c r="I25">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J25">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.3787795</v>
+      </c>
+      <c r="N25">
+        <v>0.757559</v>
+      </c>
+      <c r="O25">
+        <v>0.3846115573498748</v>
+      </c>
+      <c r="P25">
+        <v>0.3338148117629381</v>
+      </c>
+      <c r="Q25">
+        <v>0.364502543086</v>
+      </c>
+      <c r="R25">
+        <v>2.187015258516</v>
+      </c>
+      <c r="S25">
+        <v>0.04286072201898675</v>
+      </c>
+      <c r="T25">
+        <v>0.04597315631654253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H26">
+        <v>2.886924</v>
+      </c>
+      <c r="I26">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J26">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.092608</v>
+      </c>
+      <c r="O26">
+        <v>0.03134462759385272</v>
+      </c>
+      <c r="P26">
+        <v>0.04080727981284913</v>
+      </c>
+      <c r="Q26">
+        <v>0.02970580642133333</v>
+      </c>
+      <c r="R26">
+        <v>0.267352257792</v>
+      </c>
+      <c r="S26">
+        <v>0.003493013520825286</v>
+      </c>
+      <c r="T26">
+        <v>0.00562000063382835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H25">
-        <v>70.271782</v>
-      </c>
-      <c r="I25">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J25">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H27">
+        <v>2.41589</v>
+      </c>
+      <c r="I27">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J27">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.306331</v>
+      </c>
+      <c r="N27">
+        <v>0.612662</v>
+      </c>
+      <c r="O27">
+        <v>0.3110475698250421</v>
+      </c>
+      <c r="P27">
+        <v>0.269966629931537</v>
+      </c>
+      <c r="Q27">
+        <v>0.2466873331966667</v>
+      </c>
+      <c r="R27">
+        <v>1.48012399918</v>
+      </c>
+      <c r="S27">
+        <v>0.02900719738257868</v>
+      </c>
+      <c r="T27">
+        <v>0.03111362470710005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H28">
+        <v>2.41589</v>
+      </c>
+      <c r="I28">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J28">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.251793</v>
+      </c>
+      <c r="N28">
+        <v>0.755379</v>
+      </c>
+      <c r="O28">
+        <v>0.255669849766941</v>
+      </c>
+      <c r="P28">
+        <v>0.3328542050119878</v>
+      </c>
+      <c r="Q28">
+        <v>0.20276806359</v>
+      </c>
+      <c r="R28">
+        <v>1.82491257231</v>
+      </c>
+      <c r="S28">
+        <v>0.0238428668680337</v>
+      </c>
+      <c r="T28">
+        <v>0.03836141088826225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H29">
+        <v>2.41589</v>
+      </c>
+      <c r="I29">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J29">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M25">
-        <v>0.1406773333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.422032</v>
-      </c>
-      <c r="O25">
-        <v>0.09391302799820199</v>
-      </c>
-      <c r="P25">
-        <v>0.1161379944984485</v>
-      </c>
-      <c r="Q25">
-        <v>3.295215633447111</v>
-      </c>
-      <c r="R25">
-        <v>29.656940701024</v>
-      </c>
-      <c r="S25">
-        <v>0.07147668935286548</v>
-      </c>
-      <c r="T25">
-        <v>0.09004273521422021</v>
+      <c r="M29">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.051191</v>
+      </c>
+      <c r="O29">
+        <v>0.01732639546428942</v>
+      </c>
+      <c r="P29">
+        <v>0.02255707348068806</v>
+      </c>
+      <c r="Q29">
+        <v>0.01374131388777778</v>
+      </c>
+      <c r="R29">
+        <v>0.12367182499</v>
+      </c>
+      <c r="S29">
+        <v>0.001615798424157295</v>
+      </c>
+      <c r="T29">
+        <v>0.002599700262756884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H30">
+        <v>2.41589</v>
+      </c>
+      <c r="I30">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J30">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <v>0.3787795</v>
+      </c>
+      <c r="N30">
+        <v>0.757559</v>
+      </c>
+      <c r="O30">
+        <v>0.3846115573498748</v>
+      </c>
+      <c r="P30">
+        <v>0.3338148117629381</v>
+      </c>
+      <c r="Q30">
+        <v>0.3050298687516667</v>
+      </c>
+      <c r="R30">
+        <v>1.83017921251</v>
+      </c>
+      <c r="S30">
+        <v>0.03586751494616758</v>
+      </c>
+      <c r="T30">
+        <v>0.0384721207117236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H31">
+        <v>2.41589</v>
+      </c>
+      <c r="I31">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J31">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.092608</v>
+      </c>
+      <c r="O31">
+        <v>0.03134462759385272</v>
+      </c>
+      <c r="P31">
+        <v>0.04080727981284913</v>
+      </c>
+      <c r="Q31">
+        <v>0.02485897123555555</v>
+      </c>
+      <c r="R31">
+        <v>0.22373074112</v>
+      </c>
+      <c r="S31">
+        <v>0.002923089223972158</v>
+      </c>
+      <c r="T31">
+        <v>0.004703034555554484</v>
       </c>
     </row>
   </sheetData>
